--- a/Business/plan.xlsx
+++ b/Business/plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\izyGO\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B73B28-8584-4E6B-BA90-375D770D74EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2218F-6419-4B89-A63F-6D1790CB8FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6DB3DB33-CC5A-47C2-B90D-05F5C5B9B34D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Etapes</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Statut juridique</t>
   </si>
   <si>
-    <t>Rédaction business plan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Financement </t>
   </si>
   <si>
@@ -106,13 +103,22 @@
   </si>
   <si>
     <t>Gérer l'entreprise</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Evaluer les couts de mise en place</t>
+  </si>
+  <si>
+    <t>Business plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +140,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,31 +164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,26 +192,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,197 +534,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F639ABB-9FAE-49DF-9804-72E42325402A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8">
+        <v>100</v>
+      </c>
+      <c r="E2" s="10">
+        <f>AVERAGE(D2,D3,D4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="8">
         <v>100</v>
       </c>
-      <c r="E2" s="4">
-        <f>AVERAGE(D2,D3,D4)</f>
-        <v>86.666666666666671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8">
         <v>100</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4">
+        <v>80</v>
+      </c>
+      <c r="E5" s="12">
         <f>AVERAGE(D5,D6,D7)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="12">
         <f>AVERAGE(D8,D9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -754,29 +771,29 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
